--- a/EXCEL/ExcelDataAnalysisFD_Examples/Chapter02.xlsx
+++ b/EXCEL/ExcelDataAnalysisFD_Examples/Chapter02.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1777c78eef3b74d/Workbooks/Excel Data Analysis FD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meihua/Documents/MyHomePage/arielmei.github.io/EXCEL/ExcelDataAnalysisFD_Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{F97F57CE-6F09-45A5-92D2-B23FA5DCBC82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{4D0F6FDF-2630-4387-BA14-98C065416103}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7EC05-F62E-714B-A69A-D068D5A4E12B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7050" tabRatio="397" xr2:uid="{B9D60294-5061-4079-A876-B62BCD1CF08A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25220" windowHeight="15800" tabRatio="397" activeTab="4" xr2:uid="{B9D60294-5061-4079-A876-B62BCD1CF08A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic Data Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Two-Input Data Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Goal Seek" sheetId="3" r:id="rId3"/>
+    <sheet name="Goal Seek" sheetId="3" r:id="rId1"/>
+    <sheet name="One-input Data Table" sheetId="1" r:id="rId2"/>
+    <sheet name="Two-Input Data Table" sheetId="2" r:id="rId3"/>
     <sheet name="Scenarios" sheetId="4" r:id="rId4"/>
     <sheet name="Solver" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -45,12 +45,12 @@
     <definedName name="Langstrom_Wrench" localSheetId="3">'[2]Break Even (Solver)'!$C$3:$C$12</definedName>
     <definedName name="Langstrom_Wrench">'[3]Break Even (Solver)'!$C$3:$C$12</definedName>
     <definedName name="Net_Profit">[2]Iterate!$C$7</definedName>
-    <definedName name="NPer" localSheetId="2">'Goal Seek'!$B$4</definedName>
+    <definedName name="NPer" localSheetId="0">'Goal Seek'!$B$4</definedName>
     <definedName name="NPer2">'[2]Future Value (2-Inputs)'!$C$3</definedName>
     <definedName name="Paydown">[1]Scenarios!$B$9</definedName>
     <definedName name="Paydown_Payment">Scenarios!$C$12</definedName>
     <definedName name="Paydown_Total">Scenarios!$C$13</definedName>
-    <definedName name="PaymentWithExtra" localSheetId="1">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
+    <definedName name="PaymentWithExtra" localSheetId="2">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
     <definedName name="PaymentWithExtra">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
     <definedName name="Price" localSheetId="3">'[2]Break Even (Solver)'!$B$3:$C$3</definedName>
     <definedName name="Price">'[3]Break Even (Solver)'!$B$3:$C$3</definedName>
@@ -60,27 +60,27 @@
     <definedName name="Profit_Sharing" localSheetId="3">[2]Iterate!$C$6</definedName>
     <definedName name="Profit_Sharing">[3]Iterate!$C$6</definedName>
     <definedName name="Profit_Sharing_Percentage">[2]Iterate!$C$9</definedName>
-    <definedName name="Rate" localSheetId="2">'Goal Seek'!$B$3</definedName>
-    <definedName name="Rate" localSheetId="1">'[5]Mortgage Paydown Analysis'!#REF!</definedName>
+    <definedName name="Rate" localSheetId="0">'Goal Seek'!$B$3</definedName>
+    <definedName name="Rate" localSheetId="2">'[5]Mortgage Paydown Analysis'!#REF!</definedName>
     <definedName name="Rate">'[5]Mortgage Paydown Analysis'!#REF!</definedName>
     <definedName name="Rate2">'[2]Future Value (2-Inputs)'!$C$2</definedName>
     <definedName name="Regular_Payment">Scenarios!$B$12</definedName>
     <definedName name="Regular_Total">Scenarios!$B$13</definedName>
-    <definedName name="RegularPayment" localSheetId="1">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
+    <definedName name="RegularPayment" localSheetId="2">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
     <definedName name="RegularPayment">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
     <definedName name="Revenue" localSheetId="3">'[2]Break Even (Solver)'!$B$5:$C$5</definedName>
     <definedName name="Revenue">'[3]Break Even (Solver)'!$B$5:$C$5</definedName>
     <definedName name="Revised_Term">Scenarios!$C$15</definedName>
-    <definedName name="RevisedTerm" localSheetId="1">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
+    <definedName name="RevisedTerm" localSheetId="2">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
     <definedName name="RevisedTerm">'[4]Mortgage Paydown Analysis'!#REF!</definedName>
-    <definedName name="Scenario1" localSheetId="1">'Two-Input Data Table'!$B$2:$C$5</definedName>
-    <definedName name="Scenario1">'Basic Data Table'!$B$2:$C$5</definedName>
-    <definedName name="Scenario2" localSheetId="2">'[1]Data Table'!#REF!</definedName>
+    <definedName name="Scenario1" localSheetId="2">'Two-Input Data Table'!$B$2:$C$5</definedName>
+    <definedName name="Scenario1">'One-input Data Table'!$B$2:$C$5</definedName>
+    <definedName name="Scenario2" localSheetId="0">'[1]Data Table'!#REF!</definedName>
     <definedName name="Scenario2" localSheetId="3">'[1]Data Table'!#REF!</definedName>
     <definedName name="Scenario2" localSheetId="4">'[1]Data Table'!#REF!</definedName>
-    <definedName name="Scenario2" localSheetId="1">'Two-Input Data Table'!#REF!</definedName>
-    <definedName name="Scenario2">'Basic Data Table'!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Solver!$B$4,Solver!$C$4</definedName>
+    <definedName name="Scenario2" localSheetId="2">'Two-Input Data Table'!#REF!</definedName>
+    <definedName name="Scenario2">'One-input Data Table'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Solver!$B$4:$C$4</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
@@ -114,7 +114,7 @@
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
     <definedName name="Term">[1]Scenarios!$B$8</definedName>
     <definedName name="Total_Costs" localSheetId="3">'[2]Break Even (Solver)'!$B$10:$C$10</definedName>
     <definedName name="Total_Costs">'[3]Break Even (Solver)'!$B$10:$C$10</definedName>
@@ -127,7 +127,7 @@
     <definedName name="Variable_Costs" localSheetId="3">'[2]Break Even (Solver)'!$B$8:$C$8</definedName>
     <definedName name="Variable_Costs">'[3]Break Even (Solver)'!$B$8:$C$8</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Loan Payment Analysis</t>
   </si>
@@ -242,6 +242,334 @@
   </si>
   <si>
     <t>Total Profit</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t>PMT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t xml:space="preserve">function is a financial function that returns the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t>periodic payment for a loan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="PT Serif"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: monthly Rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>pv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Loan Amount</t>
+    </r>
+  </si>
+  <si>
+    <t>PMT(rate,nper,pv,[fv],[type])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>nper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: number of payments (in months)</t>
+    </r>
+  </si>
+  <si>
+    <t>Column input cell</t>
+  </si>
+  <si>
+    <t>Row input cell</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Goal seek </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>stop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. after 100 iterations. 2. The current result is within 0.001 of the desired results</t>
+    </r>
+  </si>
+  <si>
+    <t>FV(rate,nper,pmt,[pv],[type])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>nper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: number of deposit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>pmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: periodic deposit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Scenarios:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a sets of input values</t>
+    </r>
+  </si>
+  <si>
+    <t>Apply different value sets (scenarios) to analyze how the result of a formula changes under different conditions.</t>
+  </si>
+  <si>
+    <t>e.g., you want to start an investment now that will be worth $100,000 after 18 years. How much should you invest each year to make this goal?</t>
+  </si>
+  <si>
+    <t>Changing cells</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Objective cell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(target =0 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constraints </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(profit =0 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Goal Seek </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use an iterative method to get closer solution for the desired result.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>FV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function: calculate the future value of an investment for given an interest rate, term, and regular deposit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Solver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Find the optimize parameter for your equation. (maximum, minimize, to desired value) </t>
+    </r>
+  </si>
+  <si>
+    <t>Find the minimum value of y=2X^2+3X+1.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Break-even analysis</t>
   </si>
 </sst>
 </file>
@@ -258,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="\G\e\n\e\r\a\l"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -298,19 +626,137 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
       <b/>
-      <sz val="20"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -470,7 +916,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -482,36 +928,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="5" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="5" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -519,23 +946,82 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="5" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="5" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="5" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,6 +1031,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0432FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1269,63 +1760,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61773C6-A337-4550-984E-FCE0E5D32A42}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21">
+      <c r="A3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21">
+      <c r="A5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="24">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="E6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="37">
+        <f>FV(B3,B4,B5)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="9"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions headings="1" gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;F</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530417C6-67D8-4DD6-8966-E2CD0935EB7D}">
   <sheetPr published="0"/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
     <col min="3" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7" ht="24">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+    </row>
+    <row r="2" spans="1:7" ht="21">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6"/>
-      <c r="E6"/>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="6">
+    <row r="7" spans="1:7">
+      <c r="C7" s="33">
         <f>PMT(C2 / 12, C3 * 12, C4)</f>
         <v>-474.21131385767302</v>
       </c>
@@ -1333,64 +1994,64 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8"/>
-      <c r="B8" s="7">
+      <c r="B8" s="25">
         <v>0.01</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="33"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9"/>
-      <c r="B9" s="7">
+      <c r="B9" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10"/>
-      <c r="B10" s="7">
+      <c r="B10" s="25">
         <v>0.02</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="33"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11"/>
-      <c r="B11" s="7">
+      <c r="B11" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12"/>
-      <c r="B12" s="7">
+      <c r="B12" s="25">
         <v>0.03</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="33"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13"/>
-      <c r="B13" s="7">
+      <c r="B13" s="25">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14"/>
-      <c r="B14" s="7">
+      <c r="B14" s="25">
         <v>0.04</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="33"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15"/>
-      <c r="B15" s="7">
+      <c r="B15" s="25">
         <v>5.5E-2</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1402,31 +2063,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F50C9B4-FE27-413B-B312-DDAC3AB1F73C}">
   <sheetPr published="0"/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="24">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1434,7 +2097,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +2105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1450,40 +2113,43 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:8">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="27">
         <f>PMT(C2 / 12, C3 * 12, C4)</f>
         <v>-474.21131385767302</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="26">
         <v>15</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="26">
         <v>20</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="26">
         <v>25</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="26">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="H7" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="25">
         <v>0.01</v>
       </c>
       <c r="C8" s="6"/>
@@ -1491,9 +2157,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="7">
+    <row r="9" spans="1:8">
+      <c r="A9" s="68"/>
+      <c r="B9" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C9" s="6"/>
@@ -1501,9 +2167,9 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="7">
+    <row r="10" spans="1:8">
+      <c r="A10" s="68"/>
+      <c r="B10" s="25">
         <v>0.02</v>
       </c>
       <c r="C10" s="6"/>
@@ -1511,9 +2177,9 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="7">
+    <row r="11" spans="1:8">
+      <c r="A11" s="68"/>
+      <c r="B11" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C11" s="6"/>
@@ -1521,9 +2187,9 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="7">
+    <row r="12" spans="1:8">
+      <c r="A12" s="68"/>
+      <c r="B12" s="25">
         <v>0.03</v>
       </c>
       <c r="C12" s="6"/>
@@ -1531,9 +2197,9 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="7">
+    <row r="13" spans="1:8">
+      <c r="A13" s="68"/>
+      <c r="B13" s="25">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C13" s="6"/>
@@ -1541,9 +2207,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="7">
+    <row r="14" spans="1:8">
+      <c r="A14" s="68"/>
+      <c r="B14" s="25">
         <v>0.04</v>
       </c>
       <c r="C14" s="6"/>
@@ -1551,15 +2217,20 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="7">
+    <row r="15" spans="1:8">
+      <c r="A15" s="68"/>
+      <c r="B15" s="25">
         <v>5.5E-2</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="29" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1573,261 +2244,183 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61773C6-A337-4550-984E-FCE0E5D32A42}">
-  <dimension ref="A1:D19"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07CDA2B-7DD0-44B5-8D0E-30CCE5B44585}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="1" spans="1:6" ht="26">
+      <c r="A1" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="F1" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="F2" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="40">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B4" s="41">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="42"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B8" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A11" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="16">
-        <f>FV(B3,B4,B5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-  </sheetData>
-  <printOptions headings="1" gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;F</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07CDA2B-7DD0-44B5-8D0E-30CCE5B44585}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="20">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="21">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="20">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="48">
+        <f>PMT(Interest/12,B8*12,B3-B7)</f>
+        <v>-429.67376591891355</v>
+      </c>
+      <c r="C12" s="48">
+        <f>Regular_Payment+B9</f>
+        <v>-429.67376591891355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="48">
+        <f>Regular_Payment*B8*12</f>
+        <v>-154682.55573080888</v>
+      </c>
+      <c r="C13" s="48">
+        <f>C12*C15*12</f>
+        <v>-154682.55573080532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="22">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="24">
-        <f>PMT(Interest_Rate / 12, Term * 12, House_Price-Down_Payment)</f>
-        <v>-484.78426343953493</v>
-      </c>
-      <c r="C12" s="24">
-        <f>B12+Paydown</f>
-        <v>-584.78426343953493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="24">
-        <f>B12*Term*12</f>
-        <v>-116348.22322548837</v>
-      </c>
-      <c r="C13" s="24">
-        <f>C12*C15*12</f>
-        <v>-106986.75295157434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="25" t="e">
+      <c r="B14" s="49" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="49">
         <f>C13-B13</f>
-        <v>9361.4702739140339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+        <v>3.5506673157215118E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="25" t="e">
+      <c r="B15" s="49" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="26">
-        <f>NPER(Interest_Rate/12,C12,House_Price-Down_Payment)/12</f>
-        <v>15.245900588236969</v>
-      </c>
+      <c r="C15" s="50">
+        <f>NPER(Interest/12,Paydown_Payment,B3-B7)/12</f>
+        <v>29.999999999999314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="62"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
     </row>
   </sheetData>
   <scenarios current="1" show="1" sqref="B12:C13 C14 C15">
-    <scenario name="Best Case" count="3" user="Paul M" comment="Mortgage Analysis - Best Case Scenario:_x000a_ - maximum down payment_x000a_ - minimum term_x000a_ - maximum monthly paydown_x000a_">
+    <scenario name="Best Case" locked="1" count="3" user="Microsoft Office User" comment="Mortgage Analysis - Best Case Scenario:_x000a_ - maximum down payment_x000a_ - minimum term_x000a_ - maximum monthly paydown_x000a__x000a_Modified by Microsoft Office User on 4/22/2019">
       <inputCells r="B7" val="20000" numFmtId="165"/>
       <inputCells r="B8" val="20"/>
       <inputCells r="B9" val="-100" numFmtId="164"/>
@@ -1837,10 +2430,15 @@
       <inputCells r="B8" val="30"/>
       <inputCells r="B9" val="0" numFmtId="164"/>
     </scenario>
-    <scenario name="Likeliest Case" locked="1" count="3" user="Paul M" comment="Mortgage Analysis - Likliest Case Scenario:_x000a_ - average down payment_x000a_ - average term_x000a_ - average monthly paydown_x000a_Modified by Paul M on 11/12/2012">
+    <scenario name="Likeliest Case" count="3" user="Microsoft Office User" comment="Mortgage Analysis - Likliest Case Scenario:_x000a_ - average down payment_x000a_ - average term_x000a_ - average monthly paydown_x000a_Modified by Paul M on 11/12/2012_x000a_Modified by Microsoft Office User on 4/22/2019">
       <inputCells r="B7" val="15000" numFmtId="165"/>
       <inputCells r="B8" val="25"/>
       <inputCells r="B9" val="-50" numFmtId="164"/>
+    </scenario>
+    <scenario name="My Scenario" locked="1" count="3" user="Microsoft Office User" comment="Created by Microsoft Office User on 4/22/2019">
+      <inputCells r="B7" val="18000" numFmtId="6"/>
+      <inputCells r="B8" val="30"/>
+      <inputCells r="B9" val="-100" numFmtId="5"/>
     </scenario>
   </scenarios>
   <mergeCells count="1">
@@ -1857,156 +2455,227 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED213781-706E-4C84-BD68-F22D4D3AE53C}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="1:17" ht="26">
+      <c r="A1" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="40">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="K2" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="17">
         <v>24.95</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="17">
         <v>19.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="K3" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="70">
+        <v>1</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="E4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="K4" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="70">
+        <f>2*L3*L3+3*L3+1</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="19">
         <f>B3 * B4</f>
         <v>24.95</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="19">
         <f>C3 * C4</f>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="17">
         <v>12.5</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="17">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="21">
         <f>B7 * B4 - C4</f>
         <v>11.5</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="21">
         <f>C7 * C4 - B4</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:17">
+      <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="19">
         <v>100000</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="19">
         <v>75000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="19">
         <f>B8+B9</f>
         <v>100011.5</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="19">
         <f>C8+C9</f>
         <v>75008.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+    <row r="11" spans="1:17">
+      <c r="A11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="20" thickBot="1">
+      <c r="A12" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="58">
         <f>B5-B10</f>
         <v>-99986.55</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="58">
         <f>C5-C10</f>
         <v>-74988.55</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:17" ht="20" thickBot="1">
+      <c r="A14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="56">
         <f>B12+C12</f>
         <v>-174975.1</v>
       </c>
       <c r="C14" s="4"/>
+      <c r="E14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
   </sheetData>
-  <scenarios current="1">
-    <scenario name="Break-Even" locked="1" count="2" user="Paul McFedries" comment="Solver Model">
-      <inputCells r="B4" val="7513.41739996582"/>
-      <inputCells r="C4" val="6458.05335697557"/>
-    </scenario>
+  <scenarios current="0" show="0">
     <scenario name="Break-Even Analysis" count="2" user="Paul M" comment="Created by Paul M on 3/18/2013">
       <inputCells r="B4" val="7513.40988755743" numFmtId="1"/>
       <inputCells r="C4" val="6458.04690072949" numFmtId="1"/>
